--- a/formats/excel/Formats RUM ANO 17.xlsx
+++ b/formats/excel/Formats RUM ANO 17.xlsx
@@ -181,7 +181,7 @@
     <t>Code retour contrôle montant total du séjour remboursé par l'assurance maladie (i.e. hors prestations annexes )</t>
   </si>
   <si>
-    <t>CRMTTOT</t>
+    <t>CRMTFACTOT</t>
   </si>
   <si>
     <t xml:space="preserve">Code retour contrôle montant lié à la majoration au parcours de soin </t>
@@ -433,7 +433,7 @@
     <t>Montant total du séjour remboursé par l'assurance maladie (i.e. hors prestations annexes)</t>
   </si>
   <si>
-    <t>MTTOT</t>
+    <t>MTFACTOT</t>
   </si>
   <si>
     <t>Montant lié à la majoration au parcours de soins</t>
@@ -624,19 +624,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,10 +646,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,23 +685,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +700,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -706,9 +715,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,6 +731,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,14 +774,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -744,55 +781,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,19 +798,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,85 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,25 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,37 +936,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,6 +989,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,9 +1048,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,11 +1068,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,173 +1089,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,7 +1561,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1619,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <f>B2+C2-C3</f>
+        <f t="shared" ref="F2:F15" si="0">B2+C2-C3</f>
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1643,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <f>B3+C3-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1667,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1">
-        <f>B4+C4-C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1691,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1">
-        <f>B5+C5-C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1715,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1">
-        <f>B6+C6-C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1739,7 +1732,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1">
-        <f>B7+C7-C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1763,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <f>B8+C8-C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1787,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="1">
-        <f>B9+C9-C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1811,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <f>B10+C10-C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1835,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="1">
-        <f>B11+C11-C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1859,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="1">
-        <f>B12+C12-C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1883,7 +1876,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <f>B13+C13-C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1907,7 +1900,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="1">
-        <f>B14+C14-C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1931,7 +1924,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="1">
-        <f>B15+C15-C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1955,7 +1948,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F47" si="0">B16+C16-C17</f>
+        <f t="shared" ref="F16:F47" si="1">B16+C16-C17</f>
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1979,7 +1972,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2003,7 +1996,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2027,7 +2020,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2051,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2075,7 +2068,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2099,7 +2092,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2123,7 +2116,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2147,7 +2140,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2171,7 +2164,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2195,7 +2188,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2219,7 +2212,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2243,7 +2236,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2267,7 +2260,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2291,7 +2284,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2315,7 +2308,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2339,7 +2332,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2363,7 +2356,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2387,7 +2380,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2411,7 +2404,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2435,7 +2428,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2459,7 +2452,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2483,7 +2476,7 @@
         <v>81</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2507,7 +2500,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2531,7 +2524,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2555,7 +2548,7 @@
         <v>87</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2579,7 +2572,7 @@
         <v>89</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2603,7 +2596,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2627,7 +2620,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2651,7 +2644,7 @@
         <v>95</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2675,7 +2668,7 @@
         <v>97</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2699,7 +2692,7 @@
         <v>99</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2723,7 +2716,7 @@
         <v>101</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ref="F48:F79" si="1">B48+C48-C49</f>
+        <f t="shared" ref="F48:F79" si="2">B48+C48-C49</f>
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2747,7 +2740,7 @@
         <v>103</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2771,7 +2764,7 @@
         <v>105</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2795,7 +2788,7 @@
         <v>107</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2819,7 +2812,7 @@
         <v>109</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2843,7 +2836,7 @@
         <v>111</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2867,7 +2860,7 @@
         <v>113</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2891,7 +2884,7 @@
         <v>115</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2915,7 +2908,7 @@
         <v>117</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2939,7 +2932,7 @@
         <v>119</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2963,7 +2956,7 @@
         <v>121</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2987,7 +2980,7 @@
         <v>123</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3011,7 +3004,7 @@
         <v>125</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3035,7 +3028,7 @@
         <v>127</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3059,7 +3052,7 @@
         <v>129</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3083,7 +3076,7 @@
         <v>131</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3107,7 +3100,7 @@
         <v>134</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3131,7 +3124,7 @@
         <v>137</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3155,7 +3148,7 @@
         <v>139</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -3179,7 +3172,7 @@
         <v>141</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -3203,7 +3196,7 @@
         <v>143</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -3227,7 +3220,7 @@
         <v>145</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -3251,7 +3244,7 @@
         <v>147</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -3275,7 +3268,7 @@
         <v>149</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -3299,7 +3292,7 @@
         <v>151</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -3323,7 +3316,7 @@
         <v>153</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -3347,7 +3340,7 @@
         <v>155</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -3371,7 +3364,7 @@
         <v>157</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -3395,7 +3388,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -3419,7 +3412,7 @@
         <v>161</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -3443,7 +3436,7 @@
         <v>163</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -3467,7 +3460,7 @@
         <v>165</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -3491,7 +3484,7 @@
         <v>167</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" ref="F80:F97" si="2">B80+C80-C81</f>
+        <f t="shared" ref="F80:F97" si="3">B80+C80-C81</f>
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -3515,7 +3508,7 @@
         <v>169</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -3539,7 +3532,7 @@
         <v>171</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -3563,7 +3556,7 @@
         <v>173</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -3587,7 +3580,7 @@
         <v>175</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -3611,7 +3604,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -3635,7 +3628,7 @@
         <v>179</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -3659,7 +3652,7 @@
         <v>181</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -3683,7 +3676,7 @@
         <v>183</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -3707,7 +3700,7 @@
         <v>185</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -3731,7 +3724,7 @@
         <v>187</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -3755,7 +3748,7 @@
         <v>189</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -3779,7 +3772,7 @@
         <v>191</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -3803,7 +3796,7 @@
         <v>193</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -3827,7 +3820,7 @@
         <v>195</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -3851,7 +3844,7 @@
         <v>196</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -3875,7 +3868,7 @@
         <v>198</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -3899,7 +3892,7 @@
         <v>200</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>751</v>
       </c>
       <c r="G97" s="1" t="s">
